--- a/Notebooks/beta_good4_gauss3.xlsx
+++ b/Notebooks/beta_good4_gauss3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>phase</t>
   </si>
@@ -81,6 +81,54 @@
   </si>
   <si>
     <t>ne_beta1m3</t>
+  </si>
+  <si>
+    <t>he_beta1_opt</t>
+  </si>
+  <si>
+    <t>he_beta2_opt</t>
+  </si>
+  <si>
+    <t>he_beta3_opt</t>
+  </si>
+  <si>
+    <t>he_beta4_opt</t>
+  </si>
+  <si>
+    <t>he_beta1_err</t>
+  </si>
+  <si>
+    <t>he_beta2_err</t>
+  </si>
+  <si>
+    <t>he_beta3_err</t>
+  </si>
+  <si>
+    <t>he_beta4_err</t>
+  </si>
+  <si>
+    <t>ne_beta1_opt</t>
+  </si>
+  <si>
+    <t>ne_beta2_opt</t>
+  </si>
+  <si>
+    <t>ne_beta3_opt</t>
+  </si>
+  <si>
+    <t>ne_beta4_opt</t>
+  </si>
+  <si>
+    <t>ne_beta1_err</t>
+  </si>
+  <si>
+    <t>ne_beta2_err</t>
+  </si>
+  <si>
+    <t>ne_beta3_err</t>
+  </si>
+  <si>
+    <t>ne_beta4_err</t>
   </si>
   <si>
     <t>he_beta1_amp_err</t>
@@ -606,13 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +727,56 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:39">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -750,8 +846,56 @@
       <c r="W2">
         <v>0.2622864890018581</v>
       </c>
+      <c r="X2">
+        <v>-0.2818322083709183</v>
+      </c>
+      <c r="Y2">
+        <v>1.61283961856221</v>
+      </c>
+      <c r="Z2">
+        <v>-0.4023975208795856</v>
+      </c>
+      <c r="AA2">
+        <v>0.3789880073917434</v>
+      </c>
+      <c r="AB2">
+        <v>0.02899332980916463</v>
+      </c>
+      <c r="AC2">
+        <v>0.04860475600291164</v>
+      </c>
+      <c r="AD2">
+        <v>0.03983576712972371</v>
+      </c>
+      <c r="AE2">
+        <v>0.04525204280893394</v>
+      </c>
+      <c r="AF2">
+        <v>-0.1464541511488946</v>
+      </c>
+      <c r="AG2">
+        <v>0.5088777520672764</v>
+      </c>
+      <c r="AH2">
+        <v>-0.2067280812844753</v>
+      </c>
+      <c r="AI2">
+        <v>0.1927191810822214</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0111508479665389</v>
+      </c>
+      <c r="AK2">
+        <v>0.01509873968252844</v>
+      </c>
+      <c r="AL2">
+        <v>0.01530313988961163</v>
+      </c>
+      <c r="AM2">
+        <v>0.01745951347565698</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:39">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -821,8 +965,56 @@
       <c r="W3">
         <v>0.1795894016262329</v>
       </c>
+      <c r="X3">
+        <v>-0.424225213963524</v>
+      </c>
+      <c r="Y3">
+        <v>1.622952398096494</v>
+      </c>
+      <c r="Z3">
+        <v>-0.533863982712322</v>
+      </c>
+      <c r="AA3">
+        <v>0.3455764253674427</v>
+      </c>
+      <c r="AB3">
+        <v>0.02981935954575577</v>
+      </c>
+      <c r="AC3">
+        <v>0.04905079769168804</v>
+      </c>
+      <c r="AD3">
+        <v>0.04066662138672135</v>
+      </c>
+      <c r="AE3">
+        <v>0.04545260045017462</v>
+      </c>
+      <c r="AF3">
+        <v>-0.2536610928569659</v>
+      </c>
+      <c r="AG3">
+        <v>0.5285288241087726</v>
+      </c>
+      <c r="AH3">
+        <v>-0.2236841670175525</v>
+      </c>
+      <c r="AI3">
+        <v>0.1609364453392649</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01074173766443454</v>
+      </c>
+      <c r="AK3">
+        <v>0.01444279457417761</v>
+      </c>
+      <c r="AL3">
+        <v>0.01461464636781925</v>
+      </c>
+      <c r="AM3">
+        <v>0.01664241368310447</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:39">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -892,8 +1084,56 @@
       <c r="W4">
         <v>-0.03398803232840533</v>
       </c>
+      <c r="X4">
+        <v>-0.3209349929185176</v>
+      </c>
+      <c r="Y4">
+        <v>1.601079159029586</v>
+      </c>
+      <c r="Z4">
+        <v>-0.3014408651871817</v>
+      </c>
+      <c r="AA4">
+        <v>0.3520096364358008</v>
+      </c>
+      <c r="AB4">
+        <v>0.03013242919011222</v>
+      </c>
+      <c r="AC4">
+        <v>0.05010838014938088</v>
+      </c>
+      <c r="AD4">
+        <v>0.04084921747746115</v>
+      </c>
+      <c r="AE4">
+        <v>0.04670679797728246</v>
+      </c>
+      <c r="AF4">
+        <v>-0.2181754225316178</v>
+      </c>
+      <c r="AG4">
+        <v>0.5191097221149259</v>
+      </c>
+      <c r="AH4">
+        <v>-0.05418722607571241</v>
+      </c>
+      <c r="AI4">
+        <v>0.1539088782359884</v>
+      </c>
+      <c r="AJ4">
+        <v>0.01126400007120872</v>
+      </c>
+      <c r="AK4">
+        <v>0.01518281797579301</v>
+      </c>
+      <c r="AL4">
+        <v>0.01529564400653448</v>
+      </c>
+      <c r="AM4">
+        <v>0.0175126280232572</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:39">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -963,8 +1203,56 @@
       <c r="W5">
         <v>-0.220274947890279</v>
       </c>
+      <c r="X5">
+        <v>-0.06391430267323721</v>
+      </c>
+      <c r="Y5">
+        <v>1.58867307157299</v>
+      </c>
+      <c r="Z5">
+        <v>0.1068486113443717</v>
+      </c>
+      <c r="AA5">
+        <v>0.3472367198769921</v>
+      </c>
+      <c r="AB5">
+        <v>0.03327124834479004</v>
+      </c>
+      <c r="AC5">
+        <v>0.05637551360347785</v>
+      </c>
+      <c r="AD5">
+        <v>0.04566818989448151</v>
+      </c>
+      <c r="AE5">
+        <v>0.05269601285326225</v>
+      </c>
+      <c r="AF5">
+        <v>-0.07704346439376698</v>
+      </c>
+      <c r="AG5">
+        <v>0.5080200361723906</v>
+      </c>
+      <c r="AH5">
+        <v>0.1706504707896339</v>
+      </c>
+      <c r="AI5">
+        <v>0.1627427385918033</v>
+      </c>
+      <c r="AJ5">
+        <v>0.01080771817093802</v>
+      </c>
+      <c r="AK5">
+        <v>0.01468371026015468</v>
+      </c>
+      <c r="AL5">
+        <v>0.01485994416889032</v>
+      </c>
+      <c r="AM5">
+        <v>0.0169648520882047</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1034,8 +1322,56 @@
       <c r="W6">
         <v>-0.2268330230782064</v>
       </c>
+      <c r="X6">
+        <v>0.142608331342784</v>
+      </c>
+      <c r="Y6">
+        <v>1.556822479916655</v>
+      </c>
+      <c r="Z6">
+        <v>0.3532707038775365</v>
+      </c>
+      <c r="AA6">
+        <v>0.3548492741559568</v>
+      </c>
+      <c r="AB6">
+        <v>0.03492989783779617</v>
+      </c>
+      <c r="AC6">
+        <v>0.05850319931763003</v>
+      </c>
+      <c r="AD6">
+        <v>0.04841484444997164</v>
+      </c>
+      <c r="AE6">
+        <v>0.05514756439594747</v>
+      </c>
+      <c r="AF6">
+        <v>0.0585000877007194</v>
+      </c>
+      <c r="AG6">
+        <v>0.4934741716151153</v>
+      </c>
+      <c r="AH6">
+        <v>0.2652043287443192</v>
+      </c>
+      <c r="AI6">
+        <v>0.1825874467317988</v>
+      </c>
+      <c r="AJ6">
+        <v>0.01130059842508973</v>
+      </c>
+      <c r="AK6">
+        <v>0.01533468228849906</v>
+      </c>
+      <c r="AL6">
+        <v>0.01562275089409195</v>
+      </c>
+      <c r="AM6">
+        <v>0.01775973475815213</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:39">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1105,8 +1441,56 @@
       <c r="W7">
         <v>-0.01500286609483617</v>
       </c>
+      <c r="X7">
+        <v>0.08823447564722595</v>
+      </c>
+      <c r="Y7">
+        <v>1.590179851659439</v>
+      </c>
+      <c r="Z7">
+        <v>0.1813037574670601</v>
+      </c>
+      <c r="AA7">
+        <v>0.3418133277088858</v>
+      </c>
+      <c r="AB7">
+        <v>0.03913758448539956</v>
+      </c>
+      <c r="AC7">
+        <v>0.06628516528276628</v>
+      </c>
+      <c r="AD7">
+        <v>0.05381338244388821</v>
+      </c>
+      <c r="AE7">
+        <v>0.06191470271589609</v>
+      </c>
+      <c r="AF7">
+        <v>0.06105710247052874</v>
+      </c>
+      <c r="AG7">
+        <v>0.501787791378859</v>
+      </c>
+      <c r="AH7">
+        <v>0.1278423015209272</v>
+      </c>
+      <c r="AI7">
+        <v>0.1876090544954163</v>
+      </c>
+      <c r="AJ7">
+        <v>0.01081805663271417</v>
+      </c>
+      <c r="AK7">
+        <v>0.01469376552970192</v>
+      </c>
+      <c r="AL7">
+        <v>0.01485885606616302</v>
+      </c>
+      <c r="AM7">
+        <v>0.01700310077525933</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1176,8 +1560,56 @@
       <c r="W8">
         <v>0.198076381826911</v>
       </c>
+      <c r="X8">
+        <v>-0.16897006386758</v>
+      </c>
+      <c r="Y8">
+        <v>1.59665978619713</v>
+      </c>
+      <c r="Z8">
+        <v>-0.2133495590489426</v>
+      </c>
+      <c r="AA8">
+        <v>0.3288822022274895</v>
+      </c>
+      <c r="AB8">
+        <v>0.03024062646451737</v>
+      </c>
+      <c r="AC8">
+        <v>0.05106140344991802</v>
+      </c>
+      <c r="AD8">
+        <v>0.04144927237866335</v>
+      </c>
+      <c r="AE8">
+        <v>0.04758023476900073</v>
+      </c>
+      <c r="AF8">
+        <v>-0.08054288970429216</v>
+      </c>
+      <c r="AG8">
+        <v>0.5218440921152593</v>
+      </c>
+      <c r="AH8">
+        <v>-0.1132129287907175</v>
+      </c>
+      <c r="AI8">
+        <v>0.1603015537785992</v>
+      </c>
+      <c r="AJ8">
+        <v>0.01120815260102429</v>
+      </c>
+      <c r="AK8">
+        <v>0.01525233994765576</v>
+      </c>
+      <c r="AL8">
+        <v>0.01537857508312644</v>
+      </c>
+      <c r="AM8">
+        <v>0.01758995261205635</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:39">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1247,8 +1679,56 @@
       <c r="W9">
         <v>0.2193979344661179</v>
       </c>
+      <c r="X9">
+        <v>-0.3742581481674317</v>
+      </c>
+      <c r="Y9">
+        <v>1.64417733494512</v>
+      </c>
+      <c r="Z9">
+        <v>-0.4881323809835809</v>
+      </c>
+      <c r="AA9">
+        <v>0.2972696944276134</v>
+      </c>
+      <c r="AB9">
+        <v>0.03105884568035046</v>
+      </c>
+      <c r="AC9">
+        <v>0.05179721098981729</v>
+      </c>
+      <c r="AD9">
+        <v>0.0424899052895765</v>
+      </c>
+      <c r="AE9">
+        <v>0.04760846967449125</v>
+      </c>
+      <c r="AF9">
+        <v>-0.2088132090097514</v>
+      </c>
+      <c r="AG9">
+        <v>0.5417999249063767</v>
+      </c>
+      <c r="AH9">
+        <v>-0.2114331559701047</v>
+      </c>
+      <c r="AI9">
+        <v>0.1378996784138836</v>
+      </c>
+      <c r="AJ9">
+        <v>0.01034555246760838</v>
+      </c>
+      <c r="AK9">
+        <v>0.01399810970295425</v>
+      </c>
+      <c r="AL9">
+        <v>0.01413130185952091</v>
+      </c>
+      <c r="AM9">
+        <v>0.01609204730473222</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1318,8 +1798,56 @@
       <c r="W10">
         <v>0.06711787628761115</v>
       </c>
+      <c r="X10">
+        <v>-0.3741845074124353</v>
+      </c>
+      <c r="Y10">
+        <v>1.645986454292909</v>
+      </c>
+      <c r="Z10">
+        <v>-0.4179257166716254</v>
+      </c>
+      <c r="AA10">
+        <v>0.2877239971599133</v>
+      </c>
+      <c r="AB10">
+        <v>0.0299757341879162</v>
+      </c>
+      <c r="AC10">
+        <v>0.05001424225861573</v>
+      </c>
+      <c r="AD10">
+        <v>0.04071093286955629</v>
+      </c>
+      <c r="AE10">
+        <v>0.04592551846498218</v>
+      </c>
+      <c r="AF10">
+        <v>-0.2357687091041426</v>
+      </c>
+      <c r="AG10">
+        <v>0.550451902551256</v>
+      </c>
+      <c r="AH10">
+        <v>-0.1343464149348503</v>
+      </c>
+      <c r="AI10">
+        <v>0.1282080444387994</v>
+      </c>
+      <c r="AJ10">
+        <v>0.009872744581635652</v>
+      </c>
+      <c r="AK10">
+        <v>0.01333824131178331</v>
+      </c>
+      <c r="AL10">
+        <v>0.01340704549156412</v>
+      </c>
+      <c r="AM10">
+        <v>0.01531231222443566</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:39">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1389,8 +1917,56 @@
       <c r="W11">
         <v>-0.1348388505806923</v>
       </c>
+      <c r="X11">
+        <v>-0.1795981181602798</v>
+      </c>
+      <c r="Y11">
+        <v>1.613472805312679</v>
+      </c>
+      <c r="Z11">
+        <v>-0.07340936480770488</v>
+      </c>
+      <c r="AA11">
+        <v>0.2959324905326929</v>
+      </c>
+      <c r="AB11">
+        <v>0.03050986031923004</v>
+      </c>
+      <c r="AC11">
+        <v>0.05169066957304505</v>
+      </c>
+      <c r="AD11">
+        <v>0.04158384927975559</v>
+      </c>
+      <c r="AE11">
+        <v>0.04787495991505471</v>
+      </c>
+      <c r="AF11">
+        <v>-0.1375631923556189</v>
+      </c>
+      <c r="AG11">
+        <v>0.5358542651341202</v>
+      </c>
+      <c r="AH11">
+        <v>0.07277856451303014</v>
+      </c>
+      <c r="AI11">
+        <v>0.1296782192522881</v>
+      </c>
+      <c r="AJ11">
+        <v>0.01046570806201321</v>
+      </c>
+      <c r="AK11">
+        <v>0.01422782450250441</v>
+      </c>
+      <c r="AL11">
+        <v>0.01430683462342983</v>
+      </c>
+      <c r="AM11">
+        <v>0.0163655401313579</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:39">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1460,8 +2036,56 @@
       <c r="W12">
         <v>-0.2419599679179835</v>
       </c>
+      <c r="X12">
+        <v>0.05911902069075572</v>
+      </c>
+      <c r="Y12">
+        <v>1.610383385803687</v>
+      </c>
+      <c r="Z12">
+        <v>0.2510136334248523</v>
+      </c>
+      <c r="AA12">
+        <v>0.2862691824062578</v>
+      </c>
+      <c r="AB12">
+        <v>0.03701042611911494</v>
+      </c>
+      <c r="AC12">
+        <v>0.06306141084308856</v>
+      </c>
+      <c r="AD12">
+        <v>0.05112067178388197</v>
+      </c>
+      <c r="AE12">
+        <v>0.058421792337204</v>
+      </c>
+      <c r="AF12">
+        <v>0.0003536618119748749</v>
+      </c>
+      <c r="AG12">
+        <v>0.5252390579108185</v>
+      </c>
+      <c r="AH12">
+        <v>0.232167865028879</v>
+      </c>
+      <c r="AI12">
+        <v>0.1413206552478206</v>
+      </c>
+      <c r="AJ12">
+        <v>0.01117619904171851</v>
+      </c>
+      <c r="AK12">
+        <v>0.01523775393883246</v>
+      </c>
+      <c r="AL12">
+        <v>0.01543264990907845</v>
+      </c>
+      <c r="AM12">
+        <v>0.01755630925589435</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:39">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1531,8 +2155,56 @@
       <c r="W13">
         <v>-0.1251968747161085</v>
       </c>
+      <c r="X13">
+        <v>0.1346780270657072</v>
+      </c>
+      <c r="Y13">
+        <v>1.607185313339139</v>
+      </c>
+      <c r="Z13">
+        <v>0.3024361371652047</v>
+      </c>
+      <c r="AA13">
+        <v>0.3125292812530701</v>
+      </c>
+      <c r="AB13">
+        <v>0.03332679473004514</v>
+      </c>
+      <c r="AC13">
+        <v>0.05655263956172073</v>
+      </c>
+      <c r="AD13">
+        <v>0.04603548543429755</v>
+      </c>
+      <c r="AE13">
+        <v>0.05250861214328094</v>
+      </c>
+      <c r="AF13">
+        <v>0.0689821561900649</v>
+      </c>
+      <c r="AG13">
+        <v>0.5192875359947481</v>
+      </c>
+      <c r="AH13">
+        <v>0.2119816911058096</v>
+      </c>
+      <c r="AI13">
+        <v>0.1504557300873637</v>
+      </c>
+      <c r="AJ13">
+        <v>0.0102735673446443</v>
+      </c>
+      <c r="AK13">
+        <v>0.01398145233701091</v>
+      </c>
+      <c r="AL13">
+        <v>0.01415592644342237</v>
+      </c>
+      <c r="AM13">
+        <v>0.01612499614996098</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:39">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,8 +2274,56 @@
       <c r="W14">
         <v>0.1127048527113422</v>
       </c>
+      <c r="X14">
+        <v>-0.05347759461339245</v>
+      </c>
+      <c r="Y14">
+        <v>1.598020345393183</v>
+      </c>
+      <c r="Z14">
+        <v>-0.04176900819463705</v>
+      </c>
+      <c r="AA14">
+        <v>0.2758947538861392</v>
+      </c>
+      <c r="AB14">
+        <v>0.03695448740835623</v>
+      </c>
+      <c r="AC14">
+        <v>0.06278042821260278</v>
+      </c>
+      <c r="AD14">
+        <v>0.05067898764801088</v>
+      </c>
+      <c r="AE14">
+        <v>0.05831100637097937</v>
+      </c>
+      <c r="AF14">
+        <v>-0.01998885829008364</v>
+      </c>
+      <c r="AG14">
+        <v>0.5311886394751772</v>
+      </c>
+      <c r="AH14">
+        <v>-0.01627167409435862</v>
+      </c>
+      <c r="AI14">
+        <v>0.1466547519352715</v>
+      </c>
+      <c r="AJ14">
+        <v>0.0116070392657936</v>
+      </c>
+      <c r="AK14">
+        <v>0.01583584964972957</v>
+      </c>
+      <c r="AL14">
+        <v>0.01592379408625677</v>
+      </c>
+      <c r="AM14">
+        <v>0.01823403306086632</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:39">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1672,6 +2392,54 @@
       </c>
       <c r="W15">
         <v>0.219105176864552</v>
+      </c>
+      <c r="X15">
+        <v>-0.2962098041367572</v>
+      </c>
+      <c r="Y15">
+        <v>1.641073670275106</v>
+      </c>
+      <c r="Z15">
+        <v>-0.3871556532407079</v>
+      </c>
+      <c r="AA15">
+        <v>0.2664300714454093</v>
+      </c>
+      <c r="AB15">
+        <v>0.03231309941190843</v>
+      </c>
+      <c r="AC15">
+        <v>0.0544567507805716</v>
+      </c>
+      <c r="AD15">
+        <v>0.04425486433251795</v>
+      </c>
+      <c r="AE15">
+        <v>0.05001309943663997</v>
+      </c>
+      <c r="AF15">
+        <v>-0.1606111143257737</v>
+      </c>
+      <c r="AG15">
+        <v>0.5484845488378838</v>
+      </c>
+      <c r="AH15">
+        <v>-0.1834289342750187</v>
+      </c>
+      <c r="AI15">
+        <v>0.1328434387706706</v>
+      </c>
+      <c r="AJ15">
+        <v>0.0107133235112358</v>
+      </c>
+      <c r="AK15">
+        <v>0.01456620343432114</v>
+      </c>
+      <c r="AL15">
+        <v>0.01467248999036309</v>
+      </c>
+      <c r="AM15">
+        <v>0.01672824529988068</v>
       </c>
     </row>
   </sheetData>
@@ -1689,172 +2457,172 @@
   <sheetData>
     <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:57">
